--- a/2024-01-25 Nuova promozione BBVA/nuova_promozione_bbva.xlsx
+++ b/2024-01-25 Nuova promozione BBVA/nuova_promozione_bbva.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\repos\GitHub\YouTube-Repo\2024-01-25 Nuova promozione BBVA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BE0FEE-0E02-4093-ACD1-139F75C85C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED54A4F-4887-4D04-81F1-47032FE15F3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" xr2:uid="{C427EE38-B5E3-4F66-A13E-91B51C78D8BA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{C427EE38-B5E3-4F66-A13E-91B51C78D8BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Calcoli" sheetId="1" r:id="rId1"/>
@@ -110,7 +110,7 @@
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -236,42 +236,42 @@
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="4" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="2" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -590,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07EE5561-6FC1-4880-B63E-D54CF1D6A594}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -605,16 +605,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="E1" s="9" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="E1" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C2" s="4"/>
@@ -700,26 +700,26 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="8"/>
       <c r="C9" s="1"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="25">
         <f>SUM(C3:C8)</f>
         <v>360</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="25"/>
+      <c r="E11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F11" s="29">
         <f>SUM(G3:G8)</f>
         <v>96</v>
       </c>
-      <c r="G11" s="18"/>
+      <c r="G11" s="29"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3"/>
@@ -764,36 +764,36 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16" s="26">
         <f>SUM(C13:C14)</f>
         <v>703</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="E16" s="17" t="s">
+      <c r="C16" s="26"/>
+      <c r="E16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="28">
         <f>SUM(G13:G14)</f>
         <v>619.75</v>
       </c>
-      <c r="G16" s="19"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="18" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15">
+      <c r="B18" s="23"/>
+      <c r="C18" s="10">
         <f>B16+B11</f>
         <v>1063</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="15">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="10">
         <f>F16+F11</f>
         <v>715.75</v>
       </c>
@@ -816,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3970FCEC-2EBF-42E6-BB3F-452FB1F373BC}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -832,7 +832,7 @@
       <c r="A1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="21">
+      <c r="B1" s="14">
         <v>0.04</v>
       </c>
     </row>
@@ -840,53 +840,53 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="21">
+      <c r="B2" s="14">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="25">
+      <c r="E2" s="18">
         <f>B1*B3*(1-B4)-IF(B3&lt;5000,0,B6)</f>
-        <v>2927.6</v>
-      </c>
-      <c r="F2" s="29">
+        <v>559.6</v>
+      </c>
+      <c r="F2" s="22">
         <f>((E2+$B$3)-$B$3)/(E2+$B$3)</f>
-        <v>2.8443294121304738E-2</v>
+        <v>2.7218428374092812E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="23">
-        <v>100000</v>
+      <c r="B3" s="16">
+        <v>20000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="15">
         <v>0.26</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="27">
-        <f>B2*B3*(1-B5)*(1-B7)</f>
-        <v>3138.71</v>
-      </c>
-      <c r="F4" s="28">
+      <c r="E4" s="20">
+        <f>(((B2*B3*(1-B5))+B3)*(1-B7))-B3</f>
+        <v>587.74199999999837</v>
+      </c>
+      <c r="F4" s="21">
         <f>((E4+$B$3)-$B$3)/(E4+$B$3)</f>
-        <v>3.0431929970813152E-2</v>
+        <v>2.8548152585164435E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="15">
         <v>0.26</v>
       </c>
     </row>
@@ -902,7 +902,7 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="14">
         <v>2E-3</v>
       </c>
     </row>
